--- a/src/test/java/resources/BookStore_API.xlsx
+++ b/src/test/java/resources/BookStore_API.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uvaraj/eclipse-workspace/BookStore_RestAssured/src/test/java/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uvaraj/eclipse-workspace/BookStore_pojo/src/test/java/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28240486-C71F-6642-B46E-E7DFB92228DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0FFD4E-DA1D-C242-B66C-15A1BDEAE548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{B3DB3761-D5B1-5D49-8CB4-40510E6FCAE1}"/>
   </bookViews>
@@ -52,7 +52,7 @@
     <t>Sdet*API05</t>
   </si>
   <si>
-    <t>teamNumpy^107</t>
+    <t>teamNumpy^118</t>
   </si>
 </sst>
 </file>
